--- a/data/case1/14/V1_13.xlsx
+++ b/data/case1/14/V1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999328967726</v>
+        <v>0.99999999464950817</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99875901998292727</v>
+        <v>0.99869501508327807</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99566322843529509</v>
+        <v>0.99525832911625989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99923165460220242</v>
+        <v>0.99857402219859925</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98966856032140438</v>
+        <v>0.98874849071337212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96983661948291311</v>
+        <v>0.96822956724667564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96683425672079037</v>
+        <v>0.96679037805932366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95874164585852162</v>
+        <v>0.96226064960546287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95087226439756778</v>
+        <v>0.95994205543554578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94391063573423284</v>
+        <v>0.95855026349696038</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94260001723583176</v>
+        <v>0.95695459812470585</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93995160060936755</v>
+        <v>0.95417555590681258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9312564016926852</v>
+        <v>0.94289110098666096</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9289354987913585</v>
+        <v>0.93872429285802861</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.92757930292659707</v>
+        <v>0.93613306782669214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.92507296224128255</v>
+        <v>0.93362675756696567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92136519025889796</v>
+        <v>0.92991899644364873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.92025628837966211</v>
+        <v>0.92881008511345053</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99770582341197489</v>
+        <v>0.99764179438351241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99058889124001659</v>
+        <v>0.99052477104455239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98919041749158021</v>
+        <v>0.98912627826138233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98792592018600356</v>
+        <v>0.9878617727425214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9886292167339642</v>
+        <v>0.98822426256763929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97560913821105255</v>
+        <v>0.97520413384293247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96915227721374253</v>
+        <v>0.96874726030949199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96812949051181518</v>
+        <v>0.96532185092248102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9660001599113891</v>
+        <v>0.96151678601908941</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95935042571122031</v>
+        <v>0.94806607967896595</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.95510189600413331</v>
+        <v>0.9387301505421316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.94981304361856633</v>
+        <v>0.93268959996801559</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.94216077834161027</v>
+        <v>0.92503679106467018</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.94048152664151341</v>
+        <v>0.92335749173224979</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93996152564441027</v>
+        <v>0.92283747941034533</v>
       </c>
     </row>
   </sheetData>
